--- a/seagrass/initial_datasheets/MarineGEO_Seagrass-Macroalgae_Datasheet_v0.3.0.xlsx
+++ b/seagrass/initial_datasheets/MarineGEO_Seagrass-Macroalgae_Datasheet_v0.3.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Seagrasses\seagrass-macroalgae\Fieldsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\seagrass\initial_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A40AA2-3C9B-4319-8079-A0255ABA94C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A282D9E5-002D-4238-8DF6-0893EECAF56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weighed_epifauna" sheetId="1" r:id="rId1"/>
@@ -585,6 +585,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -603,9 +606,144 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -614,144 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -1141,57 +1141,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="36" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="55" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1203,46 +1203,46 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1" thickBot="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="58" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" ht="21.75" customHeight="1">
       <c r="A6" s="15" t="s">
@@ -1251,458 +1251,458 @@
       <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="72" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="48" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="30"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="30"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="30"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="35"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="35"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" ht="19.5" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:14" ht="19.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="35"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="30"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:14" ht="19.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" ht="19.5" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="65"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
     </row>
     <row r="32" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
@@ -1714,17 +1714,63 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A30:N33"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I6:N6"/>
@@ -1741,63 +1787,17 @@
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="A30:N33"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1805,7 +1805,7 @@
     <oddHeader>&amp;R&amp;"Calibri (Body)</oddHeader>
     <oddFooter xml:space="preserve">&amp;C&amp;"System Font,Regular"&amp;10&amp;K000000
 </oddFooter>
-    <firstFooter>&amp;LDatasheets available for download at https://marinegeo.github.io/seagrass&amp;RPage __ of __</firstFooter>
+    <firstFooter>&amp;Lhttps://doi.org/10.25573/serc.14925114.v1</firstFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
